--- a/evaluation/datasets/aoi-hits-750.xlsx
+++ b/evaluation/datasets/aoi-hits-750.xlsx
@@ -448,19 +448,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>0Z7F5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,43 +472,43 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>56EQU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,55 +520,55 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>E4XTY</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YHMZ8</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>QZVCE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,31 +592,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TW6WV</t>
+          <t>4Z4AT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PTVSB</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,67 +628,67 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>Y853T</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GNXUL</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>CLBOG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,79 +700,79 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>AS5OB</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>E8AHP</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>AEOTZ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IJABS</t>
+          <t>0Z7F5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,55 +784,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>E8AHP</t>
+          <t>YB1DZ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>EDT92</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TM1TK</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,55 +844,55 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>9SJKV</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7IEKX</t>
+          <t>L5UYG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P56GO</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>R6RMW</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,43 +928,43 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>QF4Y4</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6X933</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,43 +976,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7UH4G</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>Q3LQD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,55 +1024,55 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>Y853T</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>R6RMW</t>
+          <t>RQBVL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>71ZIA</t>
+          <t>Y853T</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,31 +1084,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>T9CR9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SWCTA</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>SNP8B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GNXUL</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1BPXJ</t>
+          <t>6D57L</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,19 +1180,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>E5FMT</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2SUCX</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,79 +1216,79 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,55 +1300,55 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TM1TK</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>IUW3Y</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>LW4L3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>O5B3R</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,31 +1360,31 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>DNR1S</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>4Z4AT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,19 +1396,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>FZZ7I</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,19 +1432,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TW6WV</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>E4XTY</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,19 +1456,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,43 +1480,43 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>T9CR9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,67 +1552,67 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Z0B8F</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>E4XTY</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,55 +1624,55 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TM1TK</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>H0IWU</t>
+          <t>Q3LQD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>6D57L</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,19 +1696,19 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GNXUL</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HMPFR</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>AS5OB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,55 +1732,55 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DA5Y6</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,43 +1792,43 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>53T6G</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>AEOTZ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,19 +1840,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>V8V63</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>E8AHP</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1BPXJ</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,67 +1876,67 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7UH4G</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>Q3LQD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>ZA1AS</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,19 +1948,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>UREET</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,19 +1972,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ZO6YY</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,31 +1996,31 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>AR42X</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,19 +2032,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SWCTA</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>I2ZUO</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,67 +2056,67 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>41420</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>UREET</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PBQ1B</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>56EQU</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,115 +2128,115 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>QZVCE</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>R6RMW</t>
+          <t>0Z7F5</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>4Z4AT</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,43 +2248,43 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>8B6VI</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>71ZIA</t>
+          <t>UYKI1</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,19 +2308,19 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>QPOZ5</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,79 +2332,79 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>FEFMW</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>71ZIA</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,55 +2416,55 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>T9CR9</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Z0B8F</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,19 +2476,19 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1VUA0</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,43 +2512,43 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1VUA0</t>
+          <t>QPOZ5</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>9UZS9</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,55 +2560,55 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>6IT77</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>VFQRF</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>P56GO</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,19 +2620,19 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PTVSB</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,31 +2644,31 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>I2ZUO</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,43 +2680,43 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>XWXHO</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>7IEKX</t>
+          <t>Q3LQD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,19 +2728,19 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PBQ1B</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,19 +2752,19 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>CA3ZT</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TM1TK</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,55 +2776,55 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>QPOZ5</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1BPXJ</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>NANLO</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>MZ48E</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,43 +2848,43 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,79 +2896,79 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DA5Y6</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>E8AHP</t>
+          <t>2YISI</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1VUA0</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>NANLO</t>
+          <t>AEOTZ</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,127 +2992,127 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>AR42X</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>AS5OB</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>53T6G</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>JVL0S</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>E4XTY</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>FEFMW</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,19 +3136,19 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>70AOL</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,19 +3160,19 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6IT77</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,31 +3184,31 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>41420</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,19 +3220,19 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>9SJKV</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,43 +3244,43 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>DNR1S</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,19 +3304,19 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>9UZS9</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3328,19 +3328,19 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>RQBVL</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AZJ3C</t>
+          <t>TLQGN</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,31 +3352,31 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>2YISI</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2SUCX</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>H0IWU</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,55 +3388,55 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>O5B3R</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6X933</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>EDT92</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,31 +3448,31 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>71ZIA</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>XWXHO</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,79 +3496,79 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>AEOTZ</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>AS5OB</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3604,19 +3604,19 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,31 +3628,31 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>YHMZ8</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3700,43 +3700,43 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>XISUX</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>E4XTY</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3748,31 +3748,31 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>SNP8B</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3796,19 +3796,19 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2SUCX</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>6D57L</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3820,43 +3820,43 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3868,31 +3868,31 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>LW4L3</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>FSZWF</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,55 +3928,55 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>T9CR9</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>ZA1AS</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3988,55 +3988,55 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>QZVCE</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>PBQ1B</t>
+          <t>QZVCE</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>FZZ7I</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4048,7 +4048,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4060,55 +4060,55 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>PTVSB</t>
+          <t>ZA1AS</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1BPXJ</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,103 +4132,103 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>XWXHO</t>
+          <t>KT9WX</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>JVL0S</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>HMPFR</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>OHA1B</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4240,31 +4240,31 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4276,31 +4276,31 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6X933</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4312,67 +4312,67 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>L5UYG</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4384,43 +4384,43 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>DA5Y6</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>Q3LQD</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>227EF</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4444,43 +4444,43 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>QPOZ5</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>GNXUL</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4492,43 +4492,43 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>TW6WV</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4540,55 +4540,55 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>FEFMW</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>TM1TK</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,31 +4600,31 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>XWXHO</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>IUW3Y</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4636,7 +4636,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4648,55 +4648,55 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>FEFMW</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Q0M2G</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>DA5Y6</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>TW6WV</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4708,31 +4708,31 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4744,7 +4744,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Z0B8F</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4756,19 +4756,19 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -4780,43 +4780,43 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4828,31 +4828,31 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CGY50</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4864,7 +4864,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>PBQ1B</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,43 +4876,43 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>ZA1AS</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2SUCX</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4924,19 +4924,19 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>MZ48E</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>7UH4G</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -4948,19 +4948,19 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -4972,43 +4972,43 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>Q3LQD</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>EOMQW</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -5020,31 +5020,31 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>EDT92</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>UYKI1</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -5068,67 +5068,67 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>OHA1B</t>
+          <t>41420</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>227EF</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>I2ZUO</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6IT77</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>FEFMW</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5140,31 +5140,31 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>YHMZ8</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>NANLO</t>
+          <t>AR42X</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5200,7 +5200,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>QZVCE</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5212,55 +5212,55 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>6D57L</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>SNP8B</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>VFQRF</t>
+          <t>E4XTY</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5272,7 +5272,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5284,55 +5284,55 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>KT9WX</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -5344,67 +5344,67 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>JVL0S</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>T9CR9</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>XWXHO</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SWCTA</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>AZJ3C</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -5428,19 +5428,19 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>227EF</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>H0H4E</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5452,31 +5452,31 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MC4KK</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>KT9WX</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5500,79 +5500,79 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>KT9WX</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -5584,31 +5584,31 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>0Z7F5</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2SUCX</t>
+          <t>UYKI1</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -5620,31 +5620,31 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>GNXUL</t>
+          <t>UREET</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ZO6YY</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -5656,7 +5656,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5668,79 +5668,79 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SWCTA</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>70AOL</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>PTVSB</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5752,7 +5752,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -5764,19 +5764,19 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SWCTA</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>HMPFR</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5788,79 +5788,79 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>AZJ3C</t>
+          <t>TLQGN</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>9SJKV</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>JVL0S</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>NANLO</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>9SJKV</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -5872,19 +5872,19 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Z0B8F</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>RK33F</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5896,31 +5896,31 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>NANLO</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>FSZWF</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -5932,7 +5932,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>AR42X</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -5944,7 +5944,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>8B6VI</t>
+          <t>FSZWF</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -5956,55 +5956,55 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>FZZ7I</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>CLBOG</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ZO6YY</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -6016,19 +6016,19 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -6040,55 +6040,55 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>O5B3R</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -6100,19 +6100,19 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>UOKRO</t>
+          <t>Z6T4T</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>MC4KK</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6136,31 +6136,31 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -6172,7 +6172,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>6X933</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -6184,31 +6184,31 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>PTVSB</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -6220,151 +6220,151 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>I2ZUO</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>TOKNH</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Q0M2G</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>6IT77</t>
+          <t>IUW3Y</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>IJABS</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>YB1DZ</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>OHA1B</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>CGY50</t>
+          <t>TLQGN</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2VT5R</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>YB1DZ</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>7UH4G</t>
+          <t>2YISI</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -6376,79 +6376,79 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>1BPXJ</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>DA5Y6</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>FLANC</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>TLQGN</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>VFQRF</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -6460,31 +6460,31 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>9UZS9</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>O5B3R</t>
+          <t>TLQGN</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -6508,7 +6508,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>VFQRF</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -6520,19 +6520,19 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -6544,79 +6544,79 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>CGY50</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>7FGET</t>
+          <t>V8V63</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>subevent_8</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>AZJ3C</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -6628,43 +6628,43 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>227EF</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>MC4KK</t>
+          <t>227EF</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -6688,79 +6688,79 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>YS50P</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>TM9D9</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>R6RMW</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>71ZIA</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>53T6G</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -6772,19 +6772,19 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -6796,7 +6796,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>70AOL</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -6808,7 +6808,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -6820,19 +6820,19 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -6844,31 +6844,31 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>QAU3J</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>V8V63</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -6880,43 +6880,43 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>BAJWZ</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>LW4L3</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -6928,7 +6928,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>AR42X</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -6940,7 +6940,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -6952,31 +6952,31 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>YB1DZ</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -6988,7 +6988,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -7000,19 +7000,19 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>Y853T</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>4Z4AT</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -7024,19 +7024,19 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>E8AHP</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>1VUA0</t>
+          <t>KQZI0</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -7048,43 +7048,43 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>L5UYG</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>J7DE0</t>
+          <t>LW4L3</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>CA3ZT</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -7096,7 +7096,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>J6TPU</t>
+          <t>KT9WX</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -7108,79 +7108,79 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>YHMZ8</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>ZA1AS</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Q0M2G</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -7192,7 +7192,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -7216,7 +7216,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -7228,7 +7228,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -7240,7 +7240,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -7252,43 +7252,43 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>3KRH7</t>
+          <t>9UZS9</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>AZJ3C</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>6X933</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -7300,7 +7300,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>QPOZ5</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -7312,55 +7312,55 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>QF4Y4</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>YHMZ8</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>FZZ7I</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>DNR1S</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -7372,115 +7372,115 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>V8V63</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>CGY50</t>
+          <t>227EF</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>10O4B</t>
+          <t>0Z7F5</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>RK33F</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>8N8BM</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>OHA1B</t>
+          <t>AEOTZ</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>ZL58O</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -7492,7 +7492,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>AZJ3C</t>
+          <t>CECA2</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -7504,19 +7504,19 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>YB1DZ</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>6YN3Q</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -7528,7 +7528,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -7540,7 +7540,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>SNP8B</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -7552,31 +7552,31 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>OKHYR</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -7588,31 +7588,31 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>VFQRF</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>BGC1N</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>H0IWU</t>
+          <t>RK33F</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -7624,19 +7624,19 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>1TP2F</t>
+          <t>41420</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>MC4KK</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -7648,19 +7648,19 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>DA5Y6</t>
+          <t>RK33F</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -7672,79 +7672,79 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>O5B3R</t>
+          <t>1S1VJ</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>OHA1B</t>
+          <t>DNR1S</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>XWXHO</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>YSPIM</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>CA3ZT</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -7756,19 +7756,19 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>J25F6</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>IUW3Y</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -7780,7 +7780,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Z0B8F</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -7792,7 +7792,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>UREET</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -7804,7 +7804,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -7816,43 +7816,43 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>TW6WV</t>
+          <t>9SJKV</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>UREET</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>MC4KK</t>
+          <t>H0H4E</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -7864,43 +7864,43 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>O5B3R</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>FEFMW</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -7912,7 +7912,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>4OVYE</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -7924,103 +7924,103 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>2SUCX</t>
+          <t>Y853T</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>6X933</t>
+          <t>AEOTZ</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>HMPFR</t>
+          <t>FSZWF</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>71ZIA</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>1VUA0</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>4Z4AT</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>CBSE8</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -8032,7 +8032,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -8044,7 +8044,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>1U0KC</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -8056,19 +8056,19 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>AYV72</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>8B6VI</t>
+          <t>MZ48E</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>AR42X</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -8092,19 +8092,19 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>L5UYG</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>AS5OB</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>I2ZUO</t>
+          <t>LJ03M</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -8128,67 +8128,67 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>VFQRF</t>
+          <t>RK33F</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>SNP8B</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>A3VWI</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>FK89M</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SKCH7</t>
+          <t>4Z4AT</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>NGF7C</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -8200,7 +8200,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>O4M4E</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -8212,19 +8212,19 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>XRA1Y</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -8236,7 +8236,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>DNR1S</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -8248,19 +8248,19 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ESMI2</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ZO6YY</t>
+          <t>KN56G</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -8272,7 +8272,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>DNR1S</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -8284,19 +8284,19 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>IJABS</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -8308,31 +8308,31 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>OHA1B</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>5CRZK</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -8344,31 +8344,31 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>FSZWF</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -8380,31 +8380,31 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>7ID34</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>Z2GGH</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>4A60E</t>
+          <t>CWBPJ</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -8416,31 +8416,31 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Q0M2G</t>
+          <t>H0H4E</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>UW7W7</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>L5UYG</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -8452,43 +8452,43 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>E5FMT</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>BQTCH</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>UYKI1</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -8500,43 +8500,43 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>U6I6S</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>N7OHC</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>CA3ZT</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>TM1TK</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -8548,19 +8548,19 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>53T6G</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>74JVL</t>
+          <t>TDES5</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -8572,103 +8572,103 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>2LTHV</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>8B5CW</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>6I2KH</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>XISUX</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>J6G2J</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>EJKH0</t>
+          <t>Q7MOJ</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>CKIZD</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>7IEKX</t>
+          <t>41OUC</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -8680,19 +8680,19 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>5CUT6</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -8704,19 +8704,19 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>LW4L3</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SYSF3</t>
+          <t>JVL0S</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -8728,31 +8728,31 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ZO6YY</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>02JKP</t>
+          <t>9SJKV</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>6IT77</t>
+          <t>9UZS9</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -8764,31 +8764,31 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>79C3E</t>
+          <t>EDT92</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>1VUA0</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>UYKI1</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -8800,19 +8800,19 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>CGY50</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>OLIM7</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -8824,67 +8824,67 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>subevent_7</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>56Q2P</t>
+          <t>XUC9J</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>XISUX</t>
+          <t>ZA1AS</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>H0IWU</t>
+          <t>EDT92</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -8896,19 +8896,19 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>J3AZR</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>BEGIF</t>
+          <t>1UFFX</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -8920,7 +8920,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>4YX22</t>
+          <t>NUOLU</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -8932,31 +8932,31 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>UYKI1</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>R6RMW</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>5D596</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -8968,43 +8968,43 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>7OCDZ</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>4ZZH1</t>
+          <t>FZZ7I</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Z0SYF</t>
+          <t>6D57L</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -9016,19 +9016,19 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>1BPXJ</t>
+          <t>VOMUX</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>H0IWU</t>
+          <t>B21GQ</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -9040,31 +9040,31 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>OQ5W2</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>OSRET</t>
+          <t>8NOPQ</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Z0B8F</t>
+          <t>2GKYH</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ISA18</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -9088,79 +9088,79 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>TW6WV</t>
+          <t>ZRRN2</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>3ELZT</t>
+          <t>IUW3Y</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>subevent_9</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>UOX2C</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>CQ5V4</t>
+          <t>MZ48E</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>3YKVP</t>
+          <t>YJLM8</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>YHMZ8</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>HAKZ3</t>
+          <t>YB1DZ</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -9172,55 +9172,55 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>NV9IJ</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>X23PM</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>CF8GR</t>
+          <t>PWWAD</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>FLUQN</t>
+          <t>P9JDV</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>subevent_5</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>TOKNH</t>
+          <t>CLBOG</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -9232,19 +9232,19 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>X31G1</t>
+          <t>KE98R</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>Y6UMJ</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -9256,7 +9256,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>CTNXP</t>
+          <t>O033X</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -9268,67 +9268,67 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>2XD45</t>
+          <t>VLP3K</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>09ZXP</t>
+          <t>UBAX4</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>6NYKH</t>
+          <t>6D57L</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>HMPFR</t>
+          <t>UREET</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>40LKD</t>
+          <t>J3F43</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>9U1P0</t>
+          <t>L5UYG</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -9340,19 +9340,19 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>R0DVR</t>
+          <t>CA3ZT</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -9364,7 +9364,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>M3B16</t>
+          <t>T8JFO</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -9376,7 +9376,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>6YWOE</t>
+          <t>PZ5VK</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -9388,7 +9388,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>IJABS</t>
+          <t>A3RUK</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -9400,7 +9400,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>MC4KK</t>
+          <t>Z3PEJ</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -9412,36 +9412,36 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>FFWPV</t>
+          <t>0WE5I</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>RHE1D</t>
+          <t>RQBVL</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>subevent_6</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>M3OAO</t>
+          <t>5XOA5</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>

--- a/evaluation/datasets/aoi-hits-750.xlsx
+++ b/evaluation/datasets/aoi-hits-750.xlsx
@@ -448,91 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0Z7F5</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>56EQU</t>
+          <t>ZB36T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>SH8FS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E4XTY</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,31 +544,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QZVCE</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>RE1ZS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,31 +592,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4Z4AT</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>G8XRJ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,115 +628,115 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Y853T</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CLBOG</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>8ULG9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AS5OB</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>97ENB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,91 +748,91 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>BFJE2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AEOTZ</t>
+          <t>7MP79</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0Z7F5</t>
+          <t>SH8FS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>YB1DZ</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EDT92</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9SJKV</t>
+          <t>XWUWM</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,19 +856,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>L5UYG</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>FY55N</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>FV4PR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,19 +952,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,19 +976,19 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>1GJT1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,67 +1012,67 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q3LQD</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>SH8FS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Y853T</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RQBVL</t>
+          <t>8ULG9</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Y853T</t>
+          <t>7OMF4</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,19 +1084,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>ZB36T</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,31 +1108,31 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>T9CR9</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SNP8B</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>7OMF4</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6D57L</t>
+          <t>7MP79</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,43 +1180,43 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>P6V8D</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>P3TZK</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,19 +1228,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>61BC1</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,91 +1252,91 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>8ULG9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IUW3Y</t>
+          <t>COVCR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LW4L3</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,19 +1360,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DNR1S</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>XS2QC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,103 +1384,103 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4Z4AT</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>AL11A</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FZZ7I</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>E4XTY</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>I9KYJ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>U3E7I</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,19 +1504,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>T9CR9</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,79 +1540,79 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>BFJE2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>E4XTY</t>
+          <t>S8XRS</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,43 +1636,43 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>U3E7I</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>EFCT2</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q3LQD</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>6D57L</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,31 +1696,31 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>AS5OB</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,19 +1732,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>COVCR</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,31 +1756,31 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>S8XRS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,19 +1792,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>53T6G</t>
+          <t>XWUWM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AEOTZ</t>
+          <t>YO455</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,19 +1816,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>V8V63</t>
+          <t>49OFF</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>FYVD6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,31 +1876,31 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q3LQD</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,55 +1912,55 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ZA1AS</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>UREET</t>
+          <t>6XSTM</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>SLPHY</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,19 +2008,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AR42X</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,19 +2032,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>4Y9RA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>49OFF</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,31 +2056,31 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>41420</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>UREET</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,19 +2092,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>DCKB0</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>YO455</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>56EQU</t>
+          <t>8ULG9</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,115 +2128,115 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>QZVCE</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0Z7F5</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>FYVD6</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>FV4PR</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>4Z4AT</t>
+          <t>G8XRJ</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,43 +2248,43 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>7OMF4</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>UYKI1</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,19 +2308,19 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>QPOZ5</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,19 +2332,19 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>RE1ZS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FEFMW</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,79 +2392,79 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>T9CR9</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,19 +2476,19 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,31 +2512,31 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>QPOZ5</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>9UZS9</t>
+          <t>PNZFW</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,19 +2548,19 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>OY2GY</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,19 +2572,19 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,19 +2620,19 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,31 +2644,31 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>7MP79</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,19 +2680,19 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>SH8FS</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Q3LQD</t>
+          <t>A538S</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,43 +2704,43 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,31 +2752,31 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CA3ZT</t>
+          <t>G8XRJ</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>QPOZ5</t>
+          <t>6XSTM</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,31 +2788,31 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>MP04G</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>P6V8D</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,43 +2824,43 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MZ48E</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>KNK9W</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>I9KYJ</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,19 +2884,19 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,67 +2908,67 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>AL11A</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2YISI</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>AEOTZ</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,67 +2980,67 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>AR42X</t>
+          <t>P3TZK</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>P6V8D</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>AS5OB</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>53T6G</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,43 +3052,43 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>JVL0S</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>E4XTY</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,43 +3112,43 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>FEFMW</t>
+          <t>97ENB</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>P3TZK</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>97ENB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,19 +3196,19 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>41420</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,55 +3220,55 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>9SJKV</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>DNR1S</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3280,55 +3280,55 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>9UZS9</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RQBVL</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,19 +3340,19 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TLQGN</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2YISI</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,19 +3376,19 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,43 +3400,43 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>XXENF</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>EDT92</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,31 +3448,31 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,19 +3496,19 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>RE1ZS</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3520,31 +3520,31 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>AEOTZ</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3556,31 +3556,31 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>AS5OB</t>
+          <t>7OMF4</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>DCKB0</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,31 +3592,31 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>YO455</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3640,151 +3640,151 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>I9KYJ</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>SLPHY</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>E4XTY</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>AL11A</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SNP8B</t>
+          <t>AL11A</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3796,43 +3796,43 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>ZB36T</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6D57L</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>9OA3W</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3856,67 +3856,67 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>LW4L3</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>FSZWF</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>S8XRS</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>I9KYJ</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3940,115 +3940,115 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>T9CR9</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ZA1AS</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>EFCT2</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>QZVCE</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>QZVCE</t>
+          <t>U3E7I</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>FZZ7I</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -4060,19 +4060,19 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ZA1AS</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4096,7 +4096,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>61BC1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4108,19 +4108,19 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>G8XRJ</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4132,31 +4132,31 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>KT9WX</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>JVL0S</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>BFJE2</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4168,79 +4168,79 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>N3KBD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4252,7 +4252,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4264,7 +4264,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>49OFF</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4288,55 +4288,55 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>OY2GY</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>G8XRJ</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4348,19 +4348,19 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>L5UYG</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4372,7 +4372,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4408,19 +4408,19 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>P6V8D</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Q3LQD</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4432,7 +4432,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>227EF</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4444,19 +4444,19 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4468,7 +4468,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>QPOZ5</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4480,7 +4480,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4492,55 +4492,55 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4552,19 +4552,19 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FEFMW</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4576,19 +4576,19 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4600,7 +4600,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4612,19 +4612,19 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>IUW3Y</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>RE1ZS</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4636,43 +4636,43 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>FEFMW</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4684,31 +4684,31 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4720,19 +4720,19 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4744,19 +4744,19 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4768,19 +4768,19 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>U3E7I</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>XXENF</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>HBXMM</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4804,31 +4804,31 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>61BC1</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4840,31 +4840,31 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>G8XRJ</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>4Y9RA</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4876,7 +4876,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ZA1AS</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4888,31 +4888,31 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>PNZFW</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4924,19 +4924,19 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>MZ48E</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -4948,31 +4948,31 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Q3LQD</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4984,55 +4984,55 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>P6V8D</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>EOMQW</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>EDT92</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -5044,19 +5044,19 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>UYKI1</t>
+          <t>S8XRS</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -5068,19 +5068,19 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>41420</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>227EF</t>
+          <t>P3TZK</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5092,55 +5092,55 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>SLPHY</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>ZB36T</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>S8XRS</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>FEFMW</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -5152,7 +5152,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5164,43 +5164,43 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>AR42X</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>QZVCE</t>
+          <t>SH8FS</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5212,19 +5212,19 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>U3E7I</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6D57L</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -5236,31 +5236,31 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SNP8B</t>
+          <t>61BC1</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>E4XTY</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5272,7 +5272,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5284,19 +5284,19 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>XWUWM</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5320,91 +5320,91 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>KT9WX</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>JVL0S</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>T9CR9</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>7MP79</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>1GJT1</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -5428,55 +5428,55 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>227EF</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>H0H4E</t>
+          <t>4Y9RA</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>XWUWM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -5488,7 +5488,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>KT9WX</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5500,19 +5500,19 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -5524,91 +5524,91 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>KT9WX</t>
+          <t>SLPHY</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>9OA3W</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>0Z7F5</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>UYKI1</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>OY2GY</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>UREET</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -5644,7 +5644,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -5656,31 +5656,31 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>96IY0</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>RFP3P</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -5692,7 +5692,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5728,19 +5728,19 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>P3TZK</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5752,139 +5752,139 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TLQGN</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>9SJKV</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>JVL0S</t>
+          <t>XS2QC</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>SLPHY</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>OY2GY</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>9SJKV</t>
+          <t>XXENF</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RK33F</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5896,19 +5896,19 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5920,55 +5920,55 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>FSZWF</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>AR42X</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>FSZWF</t>
+          <t>96IY0</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>FZZ7I</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -5980,19 +5980,19 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>CLBOG</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -6016,19 +6016,19 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -6040,31 +6040,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -6076,7 +6076,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>U3E7I</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -6088,7 +6088,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Z6T4T</t>
+          <t>N3KBD</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6112,7 +6112,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6136,19 +6136,19 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>63Q2X</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>BFJE2</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -6160,7 +6160,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -6172,7 +6172,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -6184,7 +6184,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>FY55N</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -6196,19 +6196,19 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -6220,43 +6220,43 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>1GJT1</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>4Y9RA</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>IUW3Y</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -6268,43 +6268,43 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>YB1DZ</t>
+          <t>YO455</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>96IY0</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>TLQGN</t>
+          <t>EFCT2</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -6316,7 +6316,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -6340,7 +6340,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>YB1DZ</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -6352,115 +6352,115 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2YISI</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>FLANC</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>TLQGN</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>9UZS9</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -6472,19 +6472,19 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>TLQGN</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -6496,19 +6496,19 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>DCKB0</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -6520,31 +6520,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>FYVD6</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -6556,67 +6556,67 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>V8V63</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>FV4PR</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>HBXMM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -6628,31 +6628,31 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>227EF</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>I9KYJ</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>227EF</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -6664,7 +6664,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -6676,7 +6676,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -6688,7 +6688,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>7OMF4</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -6700,163 +6700,163 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>53T6G</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>XXENF</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>YO455</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>QAU3J</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>V8V63</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -6868,67 +6868,67 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>8ULG9</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>LW4L3</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>9OA3W</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>AR42X</t>
+          <t>7XEL2</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -6940,43 +6940,43 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>MP04G</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>YB1DZ</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -6988,139 +6988,139 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>6RFN9</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Y853T</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>4Z4AT</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>KQZI0</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>L5UYG</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>LW4L3</t>
+          <t>A538S</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>COVCR</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>CA3ZT</t>
+          <t>6Y8Z9</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>KT9WX</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>A538S</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -7132,31 +7132,31 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>BFJE2</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ZA1AS</t>
+          <t>FY55N</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -7168,31 +7168,31 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>KSBIQ</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -7204,7 +7204,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>AEKG2</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -7216,19 +7216,19 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -7240,67 +7240,67 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>GLXN6</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>9UZS9</t>
+          <t>6XSTM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>COVCR</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>QPOZ5</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -7312,31 +7312,31 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>HBXMM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -7348,19 +7348,19 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>FZZ7I</t>
+          <t>97ENB</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>DNR1S</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -7372,67 +7372,67 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>8ULG9</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>V8V63</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>227EF</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>0Z7F5</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>RK33F</t>
+          <t>MP04G</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -7444,7 +7444,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>8N8BM</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -7456,55 +7456,55 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>AEOTZ</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ZL58O</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>CECA2</t>
+          <t>KNK9W</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>YB1DZ</t>
+          <t>97ENB</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -7516,19 +7516,19 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -7540,103 +7540,103 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SNP8B</t>
+          <t>7OMF4</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>RHHVQ</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>HBXMM</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BGC1N</t>
+          <t>HBXMM</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>RK33F</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>41420</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>9OA3W</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -7648,7 +7648,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -7660,43 +7660,43 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>RK33F</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>9OA3W</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>1S1VJ</t>
+          <t>9OZ4I</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>DNR1S</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -7708,7 +7708,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -7720,43 +7720,43 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>63Q2X</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>CA3ZT</t>
+          <t>OY2GY</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>96IY0</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -7768,43 +7768,43 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>IUW3Y</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>96IY0</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>UREET</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -7816,19 +7816,19 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>9SJKV</t>
+          <t>MP04G</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>UREET</t>
+          <t>S9P38</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -7840,55 +7840,55 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>H0H4E</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>P3TZK</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>MP04G</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -7900,7 +7900,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>FEFMW</t>
+          <t>PNZFW</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -7912,7 +7912,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>4OVYE</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -7924,19 +7924,19 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Y853T</t>
+          <t>FYVD6</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>AEOTZ</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -7948,43 +7948,43 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>FSZWF</t>
+          <t>XWUWM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>ZB36T</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -7996,55 +7996,55 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>4Z4AT</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>CBSE8</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>S1TYK</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -8056,31 +8056,31 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>AYV72</t>
+          <t>FY55N</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_4</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>MZ48E</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>AR42X</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>L5UYG</t>
+          <t>PNZFW</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -8104,7 +8104,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>AS5OB</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>LJ03M</t>
+          <t>WXKMI</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -8128,151 +8128,151 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>RK33F</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SNP8B</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>A3VWI</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>FK89M</t>
+          <t>4NA4Q</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>4Z4AT</t>
+          <t>97ENB</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_9</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>O4M4E</t>
+          <t>AL11A</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>1GJT1</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>XRA1Y</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>DNR1S</t>
+          <t>6BJK9</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>P6V8D</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>KN56G</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>DNR1S</t>
+          <t>OY2GY</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -8284,19 +8284,19 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>B8BIG</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>XXENF</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -8308,7 +8308,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>N3KBD</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -8320,19 +8320,19 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>5CRZK</t>
+          <t>FV4PR</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -8344,7 +8344,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>XXENF</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -8356,7 +8356,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>63Q2X</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -8368,7 +8368,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>FSZWF</t>
+          <t>I9KYJ</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -8380,31 +8380,31 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>7ID34</t>
+          <t>Z9904</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Z2GGH</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CWBPJ</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -8416,7 +8416,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>H0H4E</t>
+          <t>F5M6Q</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -8428,7 +8428,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -8440,7 +8440,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>L5UYG</t>
+          <t>1EGDC</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -8452,43 +8452,43 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_8</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>UYKI1</t>
+          <t>6ZK3M</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -8500,19 +8500,19 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>N7OHC</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -8524,19 +8524,19 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>CA3ZT</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -8548,79 +8548,79 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>53T6G</t>
+          <t>PKH5X</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>TDES5</t>
+          <t>SLPHY</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>2LTHV</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>EFCT2</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>6I2KH</t>
+          <t>TTIAL</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>KNK9W</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -8632,19 +8632,19 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Q7MOJ</t>
+          <t>LVANM</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -8656,7 +8656,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>CKIZD</t>
+          <t>MJOC0</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -8668,19 +8668,19 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>41OUC</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>9JU44</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>4Y4SP</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -8704,7 +8704,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>LW4L3</t>
+          <t>96IY0</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -8716,19 +8716,19 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>JVL0S</t>
+          <t>I13MZ</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>4L1W5</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -8740,43 +8740,43 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>9SJKV</t>
+          <t>MBID8</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>9UZS9</t>
+          <t>ID3U3</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>EDT92</t>
+          <t>N3KBD</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>63Q2X</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -8788,19 +8788,19 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>UYKI1</t>
+          <t>EM3G2</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>SH8FS</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -8812,7 +8812,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>OLIM7</t>
+          <t>1GJT1</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -8824,19 +8824,19 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>NNZLM</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>MP04G</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -8848,19 +8848,19 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>XUC9J</t>
+          <t>6XSTM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ZA1AS</t>
+          <t>BV08O</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -8872,7 +8872,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -8884,7 +8884,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>EDT92</t>
+          <t>DAAW4</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -8896,31 +8896,31 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>1UFFX</t>
+          <t>BFJE2</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_5</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>NUOLU</t>
+          <t>9HXR7</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -8932,7 +8932,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>UYKI1</t>
+          <t>XZNVE</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -8944,55 +8944,55 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>7OCDZ</t>
+          <t>09A6U</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>FZZ7I</t>
+          <t>ZBBCG</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -9004,7 +9004,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>6D57L</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -9016,7 +9016,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>VOMUX</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -9028,19 +9028,19 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>B21GQ</t>
+          <t>Z3GSI</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>OQ5W2</t>
+          <t>3DW2M</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -9052,19 +9052,19 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>8NOPQ</t>
+          <t>T3G7T</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>2GKYH</t>
+          <t>KNK9W</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>RVSY3</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -9088,67 +9088,67 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ZRRN2</t>
+          <t>FYVD6</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>IUW3Y</t>
+          <t>ROQJP</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>UOX2C</t>
+          <t>PNZFW</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>MZ48E</t>
+          <t>PM46G</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>YJLM8</t>
+          <t>4F04Q</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>KNK9W</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -9160,19 +9160,19 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>YB1DZ</t>
+          <t>1WT8A</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>NV9IJ</t>
+          <t>PQXCS</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -9184,43 +9184,43 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>0B18X</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>PWWAD</t>
+          <t>A7R3Z</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>subevent_4</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>P9JDV</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>CLBOG</t>
+          <t>K7PHP</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -9232,19 +9232,19 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>KE98R</t>
+          <t>AL11A</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_6</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Y6UMJ</t>
+          <t>1ZH2J</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -9256,7 +9256,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>O033X</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -9268,43 +9268,43 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>VLP3K</t>
+          <t>0OE78</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>UBAX4</t>
+          <t>EFCT2</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>6D57L</t>
+          <t>I96I7</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>UREET</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -9316,43 +9316,43 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>J3F43</t>
+          <t>XS2QC</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>subevent_1</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>L5UYG</t>
+          <t>0UXN7</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>BQJYM</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_3</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>CA3ZT</t>
+          <t>Z5BKG</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -9364,31 +9364,31 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>T8JFO</t>
+          <t>YO455</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>PZ5VK</t>
+          <t>S8XRS</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>subevent_2</t>
+          <t>subevent_0</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>A3RUK</t>
+          <t>7MP79</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -9400,7 +9400,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Z3PEJ</t>
+          <t>KENXM</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -9412,36 +9412,36 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>0WE5I</t>
+          <t>QZT0A</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>subevent_3</t>
+          <t>subevent_2</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>RQBVL</t>
+          <t>6S6Y5</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_7</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>5XOA5</t>
+          <t>9ABHH</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>subevent_0</t>
+          <t>subevent_1</t>
         </is>
       </c>
     </row>
